--- a/Order_Tracking/purchase_tracker.xlsx
+++ b/Order_Tracking/purchase_tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12138\Documents\GitHub\Morpheus_admin\Order_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB6583-9AF6-4480-BC22-B5D6A4C33FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFEC797-CB25-4B12-B813-4E9467A7C5F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Vendor</t>
   </si>
@@ -168,7 +168,10 @@
     <t>Desktop, software</t>
   </si>
   <si>
-    <t>EEG Device</t>
+    <t>Enobio32</t>
+  </si>
+  <si>
+    <t>EEG cap</t>
   </si>
 </sst>
 </file>
@@ -576,22 +579,22 @@
   <dimension ref="C2:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -620,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -646,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -672,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -695,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -718,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -741,9 +744,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43614</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -759,12 +780,13 @@
     <hyperlink ref="I3" r:id="rId1" xr:uid="{BF42A6FB-80E3-4D2A-B3D1-15914C7761AA}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{C38A9C46-F75F-4173-92C7-FD6C2E509235}"/>
     <hyperlink ref="I7" r:id="rId3" xr:uid="{73305056-9C62-49CD-ABF1-FACB3F5F09DE}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{590760AC-A56C-4F76-B675-6CB3018620D5}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Order_Tracking/purchase_tracker.xlsx
+++ b/Order_Tracking/purchase_tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Order_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBB6583-9AF6-4480-BC22-B5D6A4C33FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062D267C-0134-4BF0-B9B4-3BF3A0843ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
   </bookViews>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6C6B6F9C-4513-4065-8CC7-F2CCE3F51C1A}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{6C6B6F9C-4513-4065-8CC7-F2CCE3F51C1A}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Vendor</t>
   </si>
@@ -168,14 +168,71 @@
     <t>Desktop, software</t>
   </si>
   <si>
-    <t>EEG Device</t>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Enobio EEG Device</t>
+  </si>
+  <si>
+    <t>Clinical EEG device</t>
+  </si>
+  <si>
+    <t>Tobii Pro Glasses 2</t>
+  </si>
+  <si>
+    <t>Eyetracking</t>
+  </si>
+  <si>
+    <t>empatica e4</t>
+  </si>
+  <si>
+    <t>Wristband</t>
+  </si>
+  <si>
+    <t>BodyWave</t>
+  </si>
+  <si>
+    <t>Freer Logic</t>
+  </si>
+  <si>
+    <t>LooxidVR</t>
+  </si>
+  <si>
+    <t>VR w/ EEG</t>
+  </si>
+  <si>
+    <t>Custom Sensors</t>
+  </si>
+  <si>
+    <t>nanoPaint</t>
+  </si>
+  <si>
+    <t>Still in development. They tested a number of substrates and will send us multiple units.</t>
+  </si>
+  <si>
+    <t>Hyrel Printer</t>
+  </si>
+  <si>
+    <t>3D Printer</t>
+  </si>
+  <si>
+    <t>Teclab Benches</t>
+  </si>
+  <si>
+    <t>Benches</t>
+  </si>
+  <si>
+    <t>Will add link when I get the document</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +268,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,11 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,8 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -260,14 +327,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC256DB0-7929-42CD-A153-31A54A3DDE52}" name="Table2" displayName="Table2" ref="C2:J43" totalsRowShown="0">
-  <autoFilter ref="C2:J43" xr:uid="{6AF21836-BB96-4820-9BCF-1224BA3370BE}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC256DB0-7929-42CD-A153-31A54A3DDE52}" name="Table2" displayName="Table2" ref="C2:K43" totalsRowShown="0">
+  <autoFilter ref="C2:K43" xr:uid="{6AF21836-BB96-4820-9BCF-1224BA3370BE}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C87BFB33-5B03-4828-9551-6467B405606D}" name="Vendor"/>
     <tableColumn id="2" xr3:uid="{640175C1-A295-4A9E-A5E7-958D72E0073A}" name="Item Description"/>
     <tableColumn id="3" xr3:uid="{DF7BC4A0-3ABC-4D7E-9C94-6776E9D23DBC}" name="Date Ordered"/>
     <tableColumn id="4" xr3:uid="{1DDF262E-0712-4076-A25B-5334039AAA92}" name="Date Shipped"/>
     <tableColumn id="5" xr3:uid="{9D2A6C22-F195-4033-A513-504DD5F88022}" name="Date Delivered"/>
+    <tableColumn id="9" xr3:uid="{68008115-0D02-4508-BEA4-64C7F0E7213B}" name="Cost"/>
     <tableColumn id="6" xr3:uid="{9C52220C-0181-4577-8821-0F2C6B0B2E57}" name="Status"/>
     <tableColumn id="7" xr3:uid="{16FFC1DA-47E3-49A8-AD0F-F9D461D93706}" name="PO Link"/>
     <tableColumn id="8" xr3:uid="{F7D95EAA-49AB-40D7-B593-30F5EA28DF58}" name="Comments"/>
@@ -573,25 +641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CF943B-B4B1-4104-9B85-D26A57E3A5A0}">
-  <dimension ref="C2:M8"/>
+  <dimension ref="C2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" customWidth="1"/>
+    <col min="7" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -608,19 +676,22 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -636,17 +707,20 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5">
+        <v>42000</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -662,17 +736,20 @@
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5">
+        <v>13000</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -688,14 +765,17 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -711,14 +791,17 @@
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5">
+        <v>86000</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -734,37 +817,292 @@
       <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5">
+        <v>38000</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43614</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>22000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43591</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43594</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43597</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43493</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43493</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43493</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43536</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43536</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43536</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3300</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43525</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43525</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43525</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43567</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5600</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43371</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43371</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43371</v>
+      </c>
+      <c r="H14" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43358</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43358</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43358</v>
+      </c>
+      <c r="H15" s="5">
+        <v>14000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H43" xr:uid="{9E70B479-F898-4229-A9D9-186C812D867C}">
-      <formula1>$M$2:$M$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I43" xr:uid="{9E70B479-F898-4229-A9D9-186C812D867C}">
+      <formula1>$N$2:$N$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{632983D4-D318-46B6-8D98-CEB751B40B2A}">
-      <formula1>$M$2:$M$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{632983D4-D318-46B6-8D98-CEB751B40B2A}">
+      <formula1>$N$2:$N$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{BF42A6FB-80E3-4D2A-B3D1-15914C7761AA}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{C38A9C46-F75F-4173-92C7-FD6C2E509235}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{73305056-9C62-49CD-ABF1-FACB3F5F09DE}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{BF42A6FB-80E3-4D2A-B3D1-15914C7761AA}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{C38A9C46-F75F-4173-92C7-FD6C2E509235}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{73305056-9C62-49CD-ABF1-FACB3F5F09DE}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{0D9BF164-409A-42B3-AB75-C4C1EA1B56C0}"/>
+    <hyperlink ref="J9" r:id="rId5" xr:uid="{E355E848-0F7D-48B7-BBE9-FF33ACA90459}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{21137862-F527-47EC-9889-87BE446931A7}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{CCF12E01-87B0-4B57-9289-FC5284B1A65C}"/>
+    <hyperlink ref="J12" r:id="rId8" xr:uid="{89F32B42-8476-4B32-A479-D0A963665F28}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{5509EB24-B1B1-4A99-B5D4-79C143798103}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{3E35D7D9-1087-4B48-9A44-2C22CAEA0FE7}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Order_Tracking/purchase_tracker.xlsx
+++ b/Order_Tracking/purchase_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Order_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062D267C-0134-4BF0-B9B4-3BF3A0843ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4792058-7D04-4F32-93EF-8FE313307979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="C2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +740,7 @@
         <v>13000</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -821,7 +821,7 @@
         <v>38000</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>

--- a/Order_Tracking/purchase_tracker.xlsx
+++ b/Order_Tracking/purchase_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgri\Morpheus_admin\Order_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4792058-7D04-4F32-93EF-8FE313307979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A1851-066F-46ED-B92E-D7717B1A9651}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{09E94074-E0C4-45B9-9612-A4517293CB97}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="C2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +711,7 @@
         <v>42000</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -821,7 +821,7 @@
         <v>38000</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
